--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_physical.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ratio Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -483,953 +484,885 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>minutes_full_tip</t>
+          <t>hsr_distance_full_tip</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.74</v>
+        <v>2582.816492343737</v>
       </c>
       <c r="C2" t="n">
-        <v>18.77133333333333</v>
+        <v>2376.945406007511</v>
       </c>
       <c r="D2" t="n">
-        <v>1.104876229711972</v>
+        <v>1.088172025863727</v>
       </c>
       <c r="E2" t="n">
-        <v>2.189143668195399</v>
+        <v>49.79272500061416</v>
       </c>
       <c r="F2" t="n">
-        <v>1.924232190721672</v>
+        <v>184.7578290831949</v>
       </c>
       <c r="G2" t="n">
-        <v>18.15</v>
+        <v>2533.947368421052</v>
       </c>
       <c r="H2" t="n">
-        <v>14.71</v>
+        <v>1996.763157894737</v>
       </c>
       <c r="I2" t="n">
-        <v>23.35</v>
+        <v>2661.236842105263</v>
       </c>
       <c r="J2" t="n">
-        <v>22.19</v>
+        <v>2635.027027027027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_full_otip</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.72</v>
+        <v>322.7679775750983</v>
       </c>
       <c r="C3" t="n">
-        <v>1.589333333333333</v>
+        <v>349.2187550708603</v>
       </c>
       <c r="D3" t="n">
-        <v>1.082214765100671</v>
+        <v>1.079910387607257</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2013703056560227</v>
+        <v>21.00709124659718</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1496885655842378</v>
+        <v>27.51925833651085</v>
       </c>
       <c r="G3" t="n">
-        <v>1.41</v>
+        <v>293.8648648648648</v>
       </c>
       <c r="H3" t="n">
-        <v>1.31</v>
+        <v>270.0540540540541</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>351.8235294117647</v>
       </c>
       <c r="J3" t="n">
-        <v>1.81</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>total_distance_full_otip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.52</v>
+        <v>39349.62837419463</v>
       </c>
       <c r="C4" t="n">
-        <v>25.42133333333334</v>
+        <v>42046.72994573521</v>
       </c>
       <c r="D4" t="n">
-        <v>1.080839002267574</v>
+        <v>1.000798161400993</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9478132727494371</v>
+        <v>2615.245968456944</v>
       </c>
       <c r="F4" t="n">
-        <v>2.014401246264602</v>
+        <v>2911.479304125464</v>
       </c>
       <c r="G4" t="n">
-        <v>22.42</v>
+        <v>36065.35135135135</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18</v>
+        <v>34929.56756756757</v>
       </c>
       <c r="I4" t="n">
-        <v>24.82</v>
+        <v>43149.20588235294</v>
       </c>
       <c r="J4" t="n">
-        <v>28.17</v>
+        <v>48596.97368421053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hi_distance_full_tip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.842</v>
+        <v>3491.247611078571</v>
       </c>
       <c r="C5" t="n">
-        <v>173.8193333333333</v>
+        <v>3216.279019997441</v>
       </c>
       <c r="D5" t="n">
-        <v>1.080673803067553</v>
+        <v>0.9307722854868832</v>
       </c>
       <c r="E5" t="n">
-        <v>5.85670299742099</v>
+        <v>115.076932158944</v>
       </c>
       <c r="F5" t="n">
-        <v>14.18427321601874</v>
+        <v>304.9726972921005</v>
       </c>
       <c r="G5" t="n">
-        <v>178.65</v>
+        <v>3353.28947368421</v>
       </c>
       <c r="H5" t="n">
-        <v>148.43</v>
+        <v>2553.28947368421</v>
       </c>
       <c r="I5" t="n">
-        <v>193.36</v>
+        <v>3616.058823529412</v>
       </c>
       <c r="J5" t="n">
-        <v>194.22</v>
+        <v>3614.378378378378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>medaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253.902</v>
+        <v>450.509279558196</v>
       </c>
       <c r="C6" t="n">
-        <v>235.2053333333334</v>
+        <v>478.3008521303258</v>
       </c>
       <c r="D6" t="n">
-        <v>1.079490827872384</v>
+        <v>0.9109674157392245</v>
       </c>
       <c r="E6" t="n">
-        <v>10.10596457543761</v>
+        <v>24.23712953193726</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22125223234301</v>
+        <v>35.61041629487434</v>
       </c>
       <c r="G6" t="n">
-        <v>236.41</v>
+        <v>413.5135135135135</v>
       </c>
       <c r="H6" t="n">
-        <v>192.13</v>
+        <v>383.1351351351352</v>
       </c>
       <c r="I6" t="n">
-        <v>262.01</v>
+        <v>480.8529411764706</v>
       </c>
       <c r="J6" t="n">
-        <v>266.4</v>
+        <v>538.1842105263158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2943.106</v>
+        <v>243.3477365910802</v>
       </c>
       <c r="C7" t="n">
-        <v>2726.540666666667</v>
+        <v>226.6552831026515</v>
       </c>
       <c r="D7" t="n">
-        <v>1.079428609292703</v>
+        <v>0.8992183665883504</v>
       </c>
       <c r="E7" t="n">
-        <v>262.3672174262631</v>
+        <v>4.765604710471789</v>
       </c>
       <c r="F7" t="n">
-        <v>228.1834978841955</v>
+        <v>17.70772186314365</v>
       </c>
       <c r="G7" t="n">
-        <v>2670.17</v>
+        <v>236.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2221.83</v>
+        <v>192.2631578947368</v>
       </c>
       <c r="I7" t="n">
-        <v>3229</v>
+        <v>249.8157894736842</v>
       </c>
       <c r="J7" t="n">
-        <v>3135.32</v>
+        <v>253.7567567567567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>total_distance_full_tip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.06</v>
+        <v>40420.60292862522</v>
       </c>
       <c r="C8" t="n">
-        <v>61.38399999999999</v>
+        <v>37293.38652705338</v>
       </c>
       <c r="D8" t="n">
-        <v>1.076176202267692</v>
+        <v>0.8736769394697765</v>
       </c>
       <c r="E8" t="n">
-        <v>5.527544662867957</v>
+        <v>2682.420411775237</v>
       </c>
       <c r="F8" t="n">
-        <v>9.676159804975763</v>
+        <v>3137.148224329491</v>
       </c>
       <c r="G8" t="n">
-        <v>57.76</v>
+        <v>37303.88235294117</v>
       </c>
       <c r="H8" t="n">
-        <v>41.88</v>
+        <v>31047.10526315789</v>
       </c>
       <c r="I8" t="n">
-        <v>72.84</v>
+        <v>43198.75675675676</v>
       </c>
       <c r="J8" t="n">
-        <v>75.91</v>
+        <v>44064.02702702703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_count_full_tip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.378</v>
+        <v>289.8046774328508</v>
       </c>
       <c r="C9" t="n">
-        <v>3.139333333333334</v>
+        <v>269.5680157601211</v>
       </c>
       <c r="D9" t="n">
-        <v>1.076024633680187</v>
+        <v>0.8680779264860071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.206082507748717</v>
+        <v>6.645715417867534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4070708374063005</v>
+        <v>22.85064671929048</v>
       </c>
       <c r="G9" t="n">
-        <v>3.11</v>
+        <v>280.5526315789473</v>
       </c>
       <c r="H9" t="n">
-        <v>2.35</v>
+        <v>223.4736842105263</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>298.0526315789473</v>
       </c>
       <c r="J9" t="n">
-        <v>3.66</v>
+        <v>302.2702702702703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>highdecel_count_full_otip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>548.6700000000001</v>
+        <v>56.44796251359719</v>
       </c>
       <c r="C10" t="n">
-        <v>588.3786666666667</v>
+        <v>59.96878901457849</v>
       </c>
       <c r="D10" t="n">
-        <v>1.072372585828762</v>
+        <v>0.775455423680615</v>
       </c>
       <c r="E10" t="n">
-        <v>22.94267094302666</v>
+        <v>2.128132875982584</v>
       </c>
       <c r="F10" t="n">
-        <v>62.85020807633094</v>
+        <v>5.103694965184653</v>
       </c>
       <c r="G10" t="n">
-        <v>510.43</v>
+        <v>52.72972972972973</v>
       </c>
       <c r="H10" t="n">
-        <v>484.12</v>
+        <v>47.67567567567568</v>
       </c>
       <c r="I10" t="n">
-        <v>568.46</v>
+        <v>58.05263157894737</v>
       </c>
       <c r="J10" t="n">
-        <v>762.65</v>
+        <v>69.94736842105263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>highaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.08</v>
+        <v>23.60754748556606</v>
       </c>
       <c r="C11" t="n">
-        <v>19.71333333333333</v>
+        <v>21.7429741771847</v>
       </c>
       <c r="D11" t="n">
-        <v>1.069327020629016</v>
+        <v>0.7683727586100543</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7713300201599825</v>
+        <v>2.276878137767205</v>
       </c>
       <c r="F11" t="n">
-        <v>1.743754842969892</v>
+        <v>2.012314843780008</v>
       </c>
       <c r="G11" t="n">
-        <v>19.78</v>
+        <v>19.97368421052632</v>
       </c>
       <c r="H11" t="n">
-        <v>16.82</v>
+        <v>18.34210526315789</v>
       </c>
       <c r="I11" t="n">
-        <v>21.66</v>
+        <v>25.62162162162162</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09</v>
+        <v>25.37837837837838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>running_distance_full_otip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.702</v>
+        <v>7530.784846456363</v>
       </c>
       <c r="C12" t="n">
-        <v>16.574</v>
+        <v>8085.468747243484</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0680584047303</v>
+        <v>0.7162917772972015</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6715057706378991</v>
+        <v>514.938646734245</v>
       </c>
       <c r="F12" t="n">
-        <v>1.350284626080209</v>
+        <v>896.1435687030443</v>
       </c>
       <c r="G12" t="n">
-        <v>16.67</v>
+        <v>6690.810810810811</v>
       </c>
       <c r="H12" t="n">
-        <v>14.24</v>
+        <v>6816.972972972973</v>
       </c>
       <c r="I12" t="n">
-        <v>18.29</v>
+        <v>8058.705882352941</v>
       </c>
       <c r="J12" t="n">
-        <v>18.43</v>
+        <v>10777.42105263158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>running_distance_full_tip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2867.026</v>
+        <v>6414.86907371768</v>
       </c>
       <c r="C13" t="n">
-        <v>3060.276666666667</v>
+        <v>6077.124675352044</v>
       </c>
       <c r="D13" t="n">
-        <v>1.067404574170819</v>
+        <v>0.6833258168837449</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2139667350288</v>
+        <v>289.0135257008972</v>
       </c>
       <c r="F13" t="n">
-        <v>207.6939110692417</v>
+        <v>433.3558242827785</v>
       </c>
       <c r="G13" t="n">
-        <v>2751.38</v>
+        <v>6039.882352941177</v>
       </c>
       <c r="H13" t="n">
-        <v>2480.6</v>
+        <v>5237.552631578948</v>
       </c>
       <c r="I13" t="n">
-        <v>3043.72</v>
+        <v>6840.513513513513</v>
       </c>
       <c r="J13" t="n">
-        <v>3438.89</v>
+        <v>6846.72972972973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>minutes_full_otip</t>
+          <t>sprint_count_full_tip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.362</v>
+        <v>46.45694084177056</v>
       </c>
       <c r="C14" t="n">
-        <v>19.53066666666667</v>
+        <v>42.9127326574695</v>
       </c>
       <c r="D14" t="n">
-        <v>1.063645935446393</v>
+        <v>0.6776296104154199</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8239356771010711</v>
+        <v>3.024418628012647</v>
       </c>
       <c r="F14" t="n">
-        <v>1.248893605594663</v>
+        <v>5.355896285876586</v>
       </c>
       <c r="G14" t="n">
-        <v>17.44</v>
+        <v>44.05263157894737</v>
       </c>
       <c r="H14" t="n">
-        <v>15.49</v>
+        <v>31.21052631578947</v>
       </c>
       <c r="I14" t="n">
-        <v>19.6</v>
+        <v>50.94117647058823</v>
       </c>
       <c r="J14" t="n">
-        <v>20.86</v>
+        <v>49.64864864864865</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>sprint_distance_full_tip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.116</v>
+        <v>908.4311187348339</v>
       </c>
       <c r="C15" t="n">
-        <v>4.364000000000001</v>
+        <v>839.3336139899299</v>
       </c>
       <c r="D15" t="n">
-        <v>1.060252672497571</v>
+        <v>0.5616936731335728</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1285690475970016</v>
+        <v>75.60579694577088</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3637856511738746</v>
+        <v>128.6799513904559</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>819.3421052631579</v>
       </c>
       <c r="H15" t="n">
-        <v>3.39</v>
+        <v>556.5263157894736</v>
       </c>
       <c r="I15" t="n">
-        <v>4.32</v>
+        <v>1017.647058823529</v>
       </c>
       <c r="J15" t="n">
-        <v>4.95</v>
+        <v>1016.361111111111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>total_metersperminute_full_tip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.84</v>
+        <v>1951.497375282403</v>
       </c>
       <c r="C16" t="n">
-        <v>34.81533333333334</v>
+        <v>1979.195921232511</v>
       </c>
       <c r="D16" t="n">
-        <v>1.060150223304913</v>
+        <v>0.5428734063235473</v>
       </c>
       <c r="E16" t="n">
-        <v>1.045203329501011</v>
+        <v>87.52026849187149</v>
       </c>
       <c r="F16" t="n">
-        <v>2.59811433451996</v>
+        <v>58.64859535624818</v>
       </c>
       <c r="G16" t="n">
-        <v>31.55</v>
+        <v>1843.509189189189</v>
       </c>
       <c r="H16" t="n">
-        <v>27.21</v>
+        <v>1880.327368421053</v>
       </c>
       <c r="I16" t="n">
-        <v>33.92</v>
+        <v>2045.041052631579</v>
       </c>
       <c r="J16" t="n">
-        <v>38.14</v>
+        <v>2079.681842105263</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>medaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.11</v>
+        <v>411.2088862856664</v>
       </c>
       <c r="C17" t="n">
-        <v>20.068</v>
+        <v>391.9358645863909</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0519234602352</v>
+        <v>0.4917502342060222</v>
       </c>
       <c r="E17" t="n">
-        <v>2.322961471914677</v>
+        <v>30.60299164673375</v>
       </c>
       <c r="F17" t="n">
-        <v>2.043589978444795</v>
+        <v>32.40433120056613</v>
       </c>
       <c r="G17" t="n">
-        <v>18.66</v>
+        <v>372.2058823529412</v>
       </c>
       <c r="H17" t="n">
-        <v>15.81</v>
+        <v>335.3684210526316</v>
       </c>
       <c r="I17" t="n">
-        <v>23.69</v>
+        <v>447.4594594594595</v>
       </c>
       <c r="J17" t="n">
-        <v>24.23</v>
+        <v>462.7837837837838</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>meddecel_count_full_tip</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>466.814</v>
+        <v>289.8410844280813</v>
       </c>
       <c r="C18" t="n">
-        <v>444.3946666666668</v>
+        <v>274.4501879322932</v>
       </c>
       <c r="D18" t="n">
-        <v>1.050449150304834</v>
+        <v>0.4895804134069066</v>
       </c>
       <c r="E18" t="n">
-        <v>30.15887398428529</v>
+        <v>25.37188864332645</v>
       </c>
       <c r="F18" t="n">
-        <v>33.02428367703004</v>
+        <v>27.81901741733809</v>
       </c>
       <c r="G18" t="n">
-        <v>432.33</v>
+        <v>260.7352941176471</v>
       </c>
       <c r="H18" t="n">
-        <v>374.82</v>
+        <v>220.8684210526316</v>
       </c>
       <c r="I18" t="n">
-        <v>511.31</v>
+        <v>319.5405405405405</v>
       </c>
       <c r="J18" t="n">
-        <v>492</v>
+        <v>332.0540540540541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>hsr_count_full_otip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.944</v>
+        <v>277.7227428667057</v>
       </c>
       <c r="C19" t="n">
-        <v>28.66133333333334</v>
+        <v>288.3834259071101</v>
       </c>
       <c r="D19" t="n">
-        <v>1.044752512095273</v>
+        <v>0.4517574062018384</v>
       </c>
       <c r="E19" t="n">
-        <v>2.898159760951767</v>
+        <v>14.6909294062615</v>
       </c>
       <c r="F19" t="n">
-        <v>2.439891293441067</v>
+        <v>30.53314862763924</v>
       </c>
       <c r="G19" t="n">
-        <v>26.64</v>
+        <v>253.9459459459459</v>
       </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>247.7567567567567</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45</v>
+        <v>290.3421052631579</v>
       </c>
       <c r="J19" t="n">
-        <v>34.11</v>
+        <v>377.8947368421053</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_count_full_otip</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.062</v>
+        <v>319.7312526148439</v>
       </c>
       <c r="C20" t="n">
-        <v>3.181333333333333</v>
+        <v>332.1302805813332</v>
       </c>
       <c r="D20" t="n">
-        <v>1.038972349227085</v>
+        <v>0.4480279352573279</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08258329128825041</v>
+        <v>17.04080448434688</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3988710258192429</v>
+        <v>35.82428716777942</v>
       </c>
       <c r="G20" t="n">
-        <v>2.94</v>
+        <v>292.4594594594595</v>
       </c>
       <c r="H20" t="n">
-        <v>2.64</v>
+        <v>287.3513513513514</v>
       </c>
       <c r="I20" t="n">
-        <v>3.16</v>
+        <v>334.0588235294118</v>
       </c>
       <c r="J20" t="n">
-        <v>4.18</v>
+        <v>437.0263157894737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>highaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>23.302</v>
+        <v>21.99921345494101</v>
       </c>
       <c r="C21" t="n">
-        <v>24.17066666666667</v>
+        <v>22.45067849804692</v>
       </c>
       <c r="D21" t="n">
-        <v>1.037278631304895</v>
+        <v>0.399978517355764</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6062755149270014</v>
+        <v>1.340211583364436</v>
       </c>
       <c r="F21" t="n">
-        <v>2.512202979363691</v>
+        <v>1.751097747238879</v>
       </c>
       <c r="G21" t="n">
-        <v>22.31</v>
+        <v>20.18918918918919</v>
       </c>
       <c r="H21" t="n">
-        <v>20.59</v>
+        <v>18.54054054054054</v>
       </c>
       <c r="I21" t="n">
-        <v>23.91</v>
+        <v>23.70588235294118</v>
       </c>
       <c r="J21" t="n">
-        <v>30.93</v>
+        <v>25.40540540540541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_count_full_otip</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.24</v>
+        <v>42.00850974813823</v>
       </c>
       <c r="C22" t="n">
-        <v>20.98733333333333</v>
+        <v>43.74685467422309</v>
       </c>
       <c r="D22" t="n">
-        <v>1.036923583662714</v>
+        <v>0.3975482708351364</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5333854141237832</v>
+        <v>2.412009797757996</v>
       </c>
       <c r="F22" t="n">
-        <v>2.151731749965483</v>
+        <v>5.804913435085207</v>
       </c>
       <c r="G22" t="n">
-        <v>19.37</v>
+        <v>38.51351351351352</v>
       </c>
       <c r="H22" t="n">
-        <v>17.6</v>
+        <v>36.54054054054054</v>
       </c>
       <c r="I22" t="n">
-        <v>20.8</v>
+        <v>44.73529411764706</v>
       </c>
       <c r="J22" t="n">
-        <v>26.74</v>
+        <v>59.13157894736842</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_metersperminute_full_otip</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.192</v>
+        <v>2107.893022508576</v>
       </c>
       <c r="C23" t="n">
-        <v>3.093333333333334</v>
+        <v>2126.374957032973</v>
       </c>
       <c r="D23" t="n">
-        <v>1.031896551724138</v>
+        <v>0.3484467497021412</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3321445468467004</v>
+        <v>82.40353521221908</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2548015100500967</v>
+        <v>86.74620398206454</v>
       </c>
       <c r="G23" t="n">
-        <v>2.93</v>
+        <v>1986.106756756757</v>
       </c>
       <c r="H23" t="n">
-        <v>2.74</v>
+        <v>2019.030810810811</v>
       </c>
       <c r="I23" t="n">
-        <v>3.58</v>
+        <v>2178.932352941176</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>2363.492368421053</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hi_distance_full_otip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>222.264</v>
+        <v>3866.290896159317</v>
       </c>
       <c r="C24" t="n">
-        <v>228.6166666666667</v>
+        <v>3975.049426569427</v>
       </c>
       <c r="D24" t="n">
-        <v>1.028581626654189</v>
+        <v>0.3383479179322524</v>
       </c>
       <c r="E24" t="n">
-        <v>9.337953737302408</v>
+        <v>246.8396356041253</v>
       </c>
       <c r="F24" t="n">
-        <v>26.97673009589314</v>
+        <v>459.3947611875788</v>
       </c>
       <c r="G24" t="n">
-        <v>206.2</v>
+        <v>3465.162162162162</v>
       </c>
       <c r="H24" t="n">
-        <v>192.08</v>
+        <v>3484.27027027027</v>
       </c>
       <c r="I24" t="n">
-        <v>229.79</v>
+        <v>4080</v>
       </c>
       <c r="J24" t="n">
-        <v>304.61</v>
+        <v>5370.763157894737</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hsr_distance_full_otip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>281.716</v>
+        <v>3050.653150363986</v>
       </c>
       <c r="C25" t="n">
-        <v>289.2593333333334</v>
+        <v>3141.349812669812</v>
       </c>
       <c r="D25" t="n">
-        <v>1.026776375262084</v>
+        <v>0.33669906339506</v>
       </c>
       <c r="E25" t="n">
-        <v>10.52239659013097</v>
+        <v>208.3854233388686</v>
       </c>
       <c r="F25" t="n">
-        <v>32.17442828144885</v>
+        <v>381.7604818356406</v>
       </c>
       <c r="G25" t="n">
-        <v>264.35</v>
+        <v>2702.864864864865</v>
       </c>
       <c r="H25" t="n">
-        <v>244.9</v>
+        <v>2704.72972972973</v>
       </c>
       <c r="I25" t="n">
-        <v>290.96</v>
+        <v>3220.470588235294</v>
       </c>
       <c r="J25" t="n">
-        <v>380.05</v>
+        <v>4304.631578947368</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>highdecel_count_full_tip</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137.508</v>
+        <v>43.79579951468497</v>
       </c>
       <c r="C26" t="n">
-        <v>140.3633333333333</v>
+        <v>42.31382495277232</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02076485246919</v>
+        <v>0.3067407682057344</v>
       </c>
       <c r="E26" t="n">
-        <v>2.99849462230633</v>
+        <v>3.583819382902176</v>
       </c>
       <c r="F26" t="n">
-        <v>2.638299416200485</v>
+        <v>3.528055868299791</v>
       </c>
       <c r="G26" t="n">
-        <v>133.12</v>
+        <v>40.81578947368421</v>
       </c>
       <c r="H26" t="n">
-        <v>136.97</v>
+        <v>37.21052631578947</v>
       </c>
       <c r="I26" t="n">
-        <v>140.91</v>
+        <v>48.21621621621622</v>
       </c>
       <c r="J26" t="n">
-        <v>145.08</v>
+        <v>51.2972972972973</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>sprint_distance_full_otip</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.602</v>
+        <v>815.6377457953308</v>
       </c>
       <c r="C27" t="n">
-        <v>1.634666666666667</v>
+        <v>833.6996138996138</v>
       </c>
       <c r="D27" t="n">
-        <v>1.020391177694549</v>
+        <v>0.3024972754987119</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08927485648266255</v>
+        <v>42.3003081699587</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1316307968017616</v>
+        <v>91.60618428252401</v>
       </c>
       <c r="G27" t="n">
-        <v>1.51</v>
+        <v>762.2972972972973</v>
       </c>
       <c r="H27" t="n">
-        <v>1.32</v>
+        <v>721.6315789473684</v>
       </c>
       <c r="I27" t="n">
-        <v>1.72</v>
+        <v>859.5294117647059</v>
       </c>
       <c r="J27" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>sprint_distance_full_otip</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>59.452</v>
-      </c>
-      <c r="C28" t="n">
-        <v>60.64333333333334</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.020038574536321</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.755653724400118</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6.222370548118716</v>
-      </c>
-      <c r="G28" t="n">
-        <v>57.07</v>
-      </c>
-      <c r="H28" t="n">
-        <v>52.05</v>
-      </c>
-      <c r="I28" t="n">
-        <v>61.17</v>
-      </c>
-      <c r="J28" t="n">
-        <v>75.44</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>total_metersperminute_full_otip</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>150.63</v>
-      </c>
-      <c r="C29" t="n">
-        <v>151.8633333333333</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.008187833322268</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.643700094299442</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5.429665428612214</v>
-      </c>
-      <c r="G29" t="n">
-        <v>148.84</v>
-      </c>
-      <c r="H29" t="n">
-        <v>144.54</v>
-      </c>
-      <c r="I29" t="n">
-        <v>152.84</v>
-      </c>
-      <c r="J29" t="n">
-        <v>165.76</v>
+        <v>1066.131578947368</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_physical.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_physical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabie\Documents\Programmation\Github\Stage CF63\Tableau métriques\moyenne\2023_2024\Skill Corner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F589ED1-E6B5-40A7-80C4-55A5D23EE1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E857C4-D719-4F87-AC86-FD7AD8B47FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,21 +62,21 @@
     <t>total_distance_full_tip</t>
   </si>
   <si>
+    <t>sprint_distance_full_tip</t>
+  </si>
+  <si>
     <t>sprint_count_full_tip</t>
   </si>
   <si>
-    <t>sprint_distance_full_tip</t>
+    <t>hi_count_full_tip</t>
+  </si>
+  <si>
+    <t>hsr_count_full_tip</t>
   </si>
   <si>
     <t>meddecel_count_full_otip</t>
   </si>
   <si>
-    <t>hi_count_full_tip</t>
-  </si>
-  <si>
-    <t>hsr_count_full_tip</t>
-  </si>
-  <si>
     <t>running_distance_full_otip</t>
   </si>
   <si>
@@ -86,28 +86,28 @@
     <t>highdecel_count_full_otip</t>
   </si>
   <si>
+    <t>running_distance_full_tip</t>
+  </si>
+  <si>
+    <t>meddecel_count_full_tip</t>
+  </si>
+  <si>
     <t>medaccel_count_full_otip</t>
   </si>
   <si>
-    <t>meddecel_count_full_tip</t>
-  </si>
-  <si>
-    <t>running_distance_full_tip</t>
-  </si>
-  <si>
     <t>medaccel_count_full_tip</t>
   </si>
   <si>
     <t>sprint_count_full_otip</t>
   </si>
   <si>
+    <t>highdecel_count_full_tip</t>
+  </si>
+  <si>
     <t>hi_count_full_otip</t>
   </si>
   <si>
     <t>hsr_count_full_otip</t>
-  </si>
-  <si>
-    <t>highdecel_count_full_tip</t>
   </si>
   <si>
     <t>hsr_distance_full_otip</t>
@@ -490,16 +490,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -536,31 +531,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2582.8164923437371</v>
+        <v>2368.73434976417</v>
       </c>
       <c r="C2">
-        <v>2376.9454060075109</v>
+        <v>2175.481243687761</v>
       </c>
       <c r="D2">
-        <v>8.66</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="E2">
-        <v>49.792725000614162</v>
+        <v>34.953562509127231</v>
       </c>
       <c r="F2">
-        <v>184.75782908319491</v>
+        <v>168.90109515965241</v>
       </c>
       <c r="G2">
-        <v>2533.947368421052</v>
+        <v>2332.6842591566369</v>
       </c>
       <c r="H2">
-        <v>1996.7631578947371</v>
+        <v>1827.7915029246631</v>
       </c>
       <c r="I2">
-        <v>2661.2368421052629</v>
+        <v>2425.1968636799902</v>
       </c>
       <c r="J2">
-        <v>2635.0270270270271</v>
+        <v>2417.558780912058</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -568,31 +563,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>23.607547485566059</v>
+        <v>21.64457394870383</v>
       </c>
       <c r="C3">
-        <v>21.742974177184699</v>
+        <v>19.89319085743011</v>
       </c>
       <c r="D3">
-        <v>8.58</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E3">
-        <v>2.2768781377672052</v>
+        <v>2.10662591465403</v>
       </c>
       <c r="F3">
-        <v>2.012314843780008</v>
+        <v>1.809803004292815</v>
       </c>
       <c r="G3">
-        <v>19.973684210526319</v>
+        <v>18.38132349255233</v>
       </c>
       <c r="H3">
-        <v>18.34210526315789</v>
+        <v>16.80013697868846</v>
       </c>
       <c r="I3">
-        <v>25.621621621621621</v>
+        <v>23.61985998079917</v>
       </c>
       <c r="J3">
-        <v>25.378378378378379</v>
+        <v>23.138787157159289</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -600,31 +595,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>3491.247611078571</v>
+        <v>3201.7884417217801</v>
       </c>
       <c r="C4">
-        <v>3216.2790199974411</v>
+        <v>2943.2071349947191</v>
       </c>
       <c r="D4">
-        <v>8.5500000000000007</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="E4">
-        <v>115.076932158944</v>
+        <v>91.148440003504021</v>
       </c>
       <c r="F4">
-        <v>304.97269729210052</v>
+        <v>278.87521531883323</v>
       </c>
       <c r="G4">
-        <v>3353.28947368421</v>
+        <v>3088.1925112187901</v>
       </c>
       <c r="H4">
-        <v>2553.28947368421</v>
+        <v>2336.211449543136</v>
       </c>
       <c r="I4">
-        <v>3616.0588235294122</v>
+        <v>3304.6274177726618</v>
       </c>
       <c r="J4">
-        <v>3614.3783783783779</v>
+        <v>3316.3503759625992</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -632,31 +627,31 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>40420.602928625223</v>
+        <v>37075.760127536632</v>
       </c>
       <c r="C5">
-        <v>37293.386527053379</v>
+        <v>34152.023401883213</v>
       </c>
       <c r="D5">
-        <v>8.39</v>
+        <v>8.56</v>
       </c>
       <c r="E5">
-        <v>2682.420411775237</v>
+        <v>2559.429383179518</v>
       </c>
       <c r="F5">
-        <v>3137.1482243294909</v>
+        <v>2852.054072586051</v>
       </c>
       <c r="G5">
-        <v>37303.882352941167</v>
+        <v>34100.704381262352</v>
       </c>
       <c r="H5">
-        <v>31047.10526315789</v>
+        <v>28519.61474490567</v>
       </c>
       <c r="I5">
-        <v>43198.75675675676</v>
+        <v>39837.392367644527</v>
       </c>
       <c r="J5">
-        <v>44064.027027027027</v>
+        <v>40156.675320318463</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -664,31 +659,31 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>46.45694084177056</v>
+        <v>833.05409195760944</v>
       </c>
       <c r="C6">
-        <v>42.912732657469498</v>
+        <v>767.72589130695837</v>
       </c>
       <c r="D6">
-        <v>8.26</v>
+        <v>8.51</v>
       </c>
       <c r="E6">
-        <v>3.024418628012647</v>
+        <v>65.666813252847078</v>
       </c>
       <c r="F6">
-        <v>5.3558962858765859</v>
+        <v>117.79573548279269</v>
       </c>
       <c r="G6">
-        <v>44.05263157894737</v>
+        <v>755.50825206215313</v>
       </c>
       <c r="H6">
-        <v>31.210526315789469</v>
+        <v>508.41994661847269</v>
       </c>
       <c r="I6">
-        <v>50.941176470588232</v>
+        <v>929.54853776952132</v>
       </c>
       <c r="J6">
-        <v>49.648648648648653</v>
+        <v>931.36733026967136</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -696,31 +691,31 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>908.43111873483394</v>
+        <v>42.59121228266082</v>
       </c>
       <c r="C7">
-        <v>839.33361398992986</v>
+        <v>39.261606215245791</v>
       </c>
       <c r="D7">
-        <v>8.23</v>
+        <v>8.48</v>
       </c>
       <c r="E7">
-        <v>75.605796945770877</v>
+        <v>2.5738882770546052</v>
       </c>
       <c r="F7">
-        <v>128.6799513904559</v>
+        <v>4.9058083324546384</v>
       </c>
       <c r="G7">
-        <v>819.34210526315792</v>
+        <v>40.58656233187056</v>
       </c>
       <c r="H7">
-        <v>556.52631578947364</v>
+        <v>28.540833558080479</v>
       </c>
       <c r="I7">
-        <v>1017.6470588235291</v>
+        <v>46.53828124222364</v>
       </c>
       <c r="J7">
-        <v>1016.361111111111</v>
+        <v>45.586085966972163</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -728,31 +723,31 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>322.76797757509831</v>
+        <v>265.71188129884729</v>
       </c>
       <c r="C8">
-        <v>349.21875507086031</v>
+        <v>246.6854268767276</v>
       </c>
       <c r="D8">
-        <v>-7.57</v>
+        <v>7.71</v>
       </c>
       <c r="E8">
-        <v>21.007091246597181</v>
+        <v>4.906079075158976</v>
       </c>
       <c r="F8">
-        <v>27.519258336510848</v>
+        <v>20.86343527622514</v>
       </c>
       <c r="G8">
-        <v>293.86486486486478</v>
+        <v>258.23697903143147</v>
       </c>
       <c r="H8">
-        <v>270.05405405405412</v>
+        <v>204.44227821341991</v>
       </c>
       <c r="I8">
-        <v>351.8235294117647</v>
+        <v>271.39649308945133</v>
       </c>
       <c r="J8">
-        <v>392</v>
+        <v>275.12004230419501</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -760,31 +755,31 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>289.80467743285078</v>
+        <v>223.1206690161865</v>
       </c>
       <c r="C9">
-        <v>269.56801576012111</v>
+        <v>207.42382066148181</v>
       </c>
       <c r="D9">
-        <v>7.51</v>
+        <v>7.57</v>
       </c>
       <c r="E9">
-        <v>6.6457154178675344</v>
+        <v>3.6573886393051609</v>
       </c>
       <c r="F9">
-        <v>22.850646719290481</v>
+        <v>16.145134037490369</v>
       </c>
       <c r="G9">
-        <v>280.55263157894728</v>
+        <v>217.65041669956091</v>
       </c>
       <c r="H9">
-        <v>223.4736842105263</v>
+        <v>175.90144465533939</v>
       </c>
       <c r="I9">
-        <v>298.05263157894728</v>
+        <v>227.51535737265331</v>
       </c>
       <c r="J9">
-        <v>302.27027027027032</v>
+        <v>230.97002657113049</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -792,31 +787,31 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>243.34773659108021</v>
+        <v>296.10211244320521</v>
       </c>
       <c r="C10">
-        <v>226.65528310265151</v>
+        <v>319.88831593118499</v>
       </c>
       <c r="D10">
-        <v>7.36</v>
+        <v>-7.44</v>
       </c>
       <c r="E10">
-        <v>4.7656047104717887</v>
+        <v>18.195434107081059</v>
       </c>
       <c r="F10">
-        <v>17.70772186314365</v>
+        <v>25.735786270039231</v>
       </c>
       <c r="G10">
-        <v>236.5</v>
+        <v>271.4648968931275</v>
       </c>
       <c r="H10">
-        <v>192.26315789473679</v>
+        <v>245.92332548924961</v>
       </c>
       <c r="I10">
-        <v>249.81578947368419</v>
+        <v>321.84374368464682</v>
       </c>
       <c r="J10">
-        <v>253.75675675675669</v>
+        <v>360.0535240768067</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -824,31 +819,31 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>7530.7848464563631</v>
+        <v>6908.794767104393</v>
       </c>
       <c r="C11">
-        <v>8085.4687472434844</v>
+        <v>7405.2234715726454</v>
       </c>
       <c r="D11">
-        <v>-6.86</v>
+        <v>-6.7</v>
       </c>
       <c r="E11">
-        <v>514.93864673424503</v>
+        <v>450.13584428353289</v>
       </c>
       <c r="F11">
-        <v>896.14356870304425</v>
+        <v>835.46870193201869</v>
       </c>
       <c r="G11">
-        <v>6690.8108108108108</v>
+        <v>6179.7060952490328</v>
       </c>
       <c r="H11">
-        <v>6816.9729729729734</v>
+        <v>6209.9448910165638</v>
       </c>
       <c r="I11">
-        <v>8058.7058823529414</v>
+        <v>7369.5283432013139</v>
       </c>
       <c r="J11">
-        <v>10777.42105263158</v>
+        <v>9897.5178690671437</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -856,31 +851,31 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>39349.628374194632</v>
+        <v>36105.383276141562</v>
       </c>
       <c r="C12">
-        <v>42046.729945735213</v>
+        <v>38516.951760595723</v>
       </c>
       <c r="D12">
-        <v>-6.41</v>
+        <v>-6.26</v>
       </c>
       <c r="E12">
-        <v>2615.245968456944</v>
+        <v>2288.520584765628</v>
       </c>
       <c r="F12">
-        <v>2911.4793041254638</v>
+        <v>2730.7956667948101</v>
       </c>
       <c r="G12">
-        <v>36065.351351351354</v>
+        <v>33327.894850705787</v>
       </c>
       <c r="H12">
-        <v>34929.567567567567</v>
+        <v>31823.55700741104</v>
       </c>
       <c r="I12">
-        <v>43149.205882352937</v>
+        <v>39473.226252643573</v>
       </c>
       <c r="J12">
-        <v>48596.973684210527</v>
+        <v>44643.969660399263</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -888,31 +883,31 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>56.44796251359719</v>
+        <v>51.763646381991649</v>
       </c>
       <c r="C13">
-        <v>59.968789014578491</v>
+        <v>54.918283123503294</v>
       </c>
       <c r="D13">
-        <v>-5.87</v>
+        <v>-5.74</v>
       </c>
       <c r="E13">
-        <v>2.1281328759825842</v>
+        <v>1.832455760105173</v>
       </c>
       <c r="F13">
-        <v>5.103694965184653</v>
+        <v>4.7091339857721124</v>
       </c>
       <c r="G13">
-        <v>52.729729729729733</v>
+        <v>48.655456850184848</v>
       </c>
       <c r="H13">
-        <v>47.675675675675677</v>
+        <v>43.450683131487857</v>
       </c>
       <c r="I13">
-        <v>58.05263157894737</v>
+        <v>53.433141633740647</v>
       </c>
       <c r="J13">
-        <v>69.94736842105263</v>
+        <v>64.229414510139335</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -920,31 +915,31 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>450.509279558196</v>
+        <v>5882.4712146748261</v>
       </c>
       <c r="C14">
-        <v>478.30085213032578</v>
+        <v>5563.3217558143606</v>
       </c>
       <c r="D14">
-        <v>-5.81</v>
+        <v>5.74</v>
       </c>
       <c r="E14">
-        <v>24.23712953193726</v>
+        <v>278.66528530418782</v>
       </c>
       <c r="F14">
-        <v>35.610416294874341</v>
+        <v>394.9527226938535</v>
       </c>
       <c r="G14">
-        <v>413.51351351351349</v>
+        <v>5517.8095930611826</v>
       </c>
       <c r="H14">
-        <v>383.13513513513522</v>
+        <v>4809.6188002061144</v>
       </c>
       <c r="I14">
-        <v>480.85294117647061</v>
+        <v>6276.8894484520661</v>
       </c>
       <c r="J14">
-        <v>538.18421052631584</v>
+        <v>6234.815609214259</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -952,31 +947,31 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>289.84108442808127</v>
+        <v>265.76291036331162</v>
       </c>
       <c r="C15">
-        <v>274.4501879322932</v>
+        <v>251.36711709622099</v>
       </c>
       <c r="D15">
-        <v>5.61</v>
+        <v>5.73</v>
       </c>
       <c r="E15">
-        <v>25.37188864332645</v>
+        <v>24.006739741761461</v>
       </c>
       <c r="F15">
-        <v>27.819017417338092</v>
+        <v>25.21453849701118</v>
       </c>
       <c r="G15">
-        <v>260.73529411764707</v>
+        <v>238.12853108806479</v>
       </c>
       <c r="H15">
-        <v>220.86842105263159</v>
+        <v>202.98813072959831</v>
       </c>
       <c r="I15">
-        <v>319.54054054054052</v>
+        <v>294.66814223654382</v>
       </c>
       <c r="J15">
-        <v>332.05405405405412</v>
+        <v>302.72738094833261</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -984,31 +979,31 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>6414.8690737176803</v>
+        <v>413.22125816802162</v>
       </c>
       <c r="C16">
-        <v>6077.1246753520436</v>
+        <v>438.04973573426201</v>
       </c>
       <c r="D16">
-        <v>5.56</v>
+        <v>-5.67</v>
       </c>
       <c r="E16">
-        <v>289.01352570089722</v>
+        <v>21.07851710438047</v>
       </c>
       <c r="F16">
-        <v>433.35582428277849</v>
+        <v>33.154310359558117</v>
       </c>
       <c r="G16">
-        <v>6039.8823529411766</v>
+        <v>381.78420549203969</v>
       </c>
       <c r="H16">
-        <v>5237.5526315789484</v>
+        <v>348.94241657969019</v>
       </c>
       <c r="I16">
-        <v>6840.5135135135133</v>
+        <v>439.73818598542982</v>
       </c>
       <c r="J16">
-        <v>6846.72972972973</v>
+        <v>494.43768474702682</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1016,31 +1011,31 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>411.20888628566638</v>
+        <v>377.04216326986682</v>
       </c>
       <c r="C17">
-        <v>391.93586458639089</v>
+        <v>358.89721962071849</v>
       </c>
       <c r="D17">
-        <v>4.92</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="E17">
-        <v>30.602991646733749</v>
+        <v>29.113169715277039</v>
       </c>
       <c r="F17">
-        <v>32.404331200566133</v>
+        <v>29.138971149923591</v>
       </c>
       <c r="G17">
-        <v>372.20588235294122</v>
+        <v>339.89727962723009</v>
       </c>
       <c r="H17">
-        <v>335.36842105263162</v>
+        <v>308.1760603677198</v>
       </c>
       <c r="I17">
-        <v>447.45945945945948</v>
+        <v>410.83471507430528</v>
       </c>
       <c r="J17">
-        <v>462.7837837837838</v>
+        <v>422.65381854430058</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1048,31 +1043,31 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>42.008509748138231</v>
+        <v>38.508093821786389</v>
       </c>
       <c r="C18">
-        <v>43.746854674223087</v>
+        <v>40.039506666635553</v>
       </c>
       <c r="D18">
-        <v>-3.97</v>
+        <v>-3.82</v>
       </c>
       <c r="E18">
-        <v>2.412009797757996</v>
+        <v>2.1277904371115879</v>
       </c>
       <c r="F18">
-        <v>5.804913435085207</v>
+        <v>5.3914558391301286</v>
       </c>
       <c r="G18">
-        <v>38.513513513513523</v>
+        <v>35.532107615639497</v>
       </c>
       <c r="H18">
-        <v>36.54054054054054</v>
+        <v>33.331054499056577</v>
       </c>
       <c r="I18">
-        <v>44.735294117647058</v>
+        <v>40.848050988106941</v>
       </c>
       <c r="J18">
-        <v>59.131578947368418</v>
+        <v>54.231823816726738</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1080,31 +1075,31 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>319.73125261484392</v>
+        <v>40.177011433977057</v>
       </c>
       <c r="C19">
-        <v>332.13028058133318</v>
+        <v>38.730842268332303</v>
       </c>
       <c r="D19">
-        <v>-3.73</v>
+        <v>3.73</v>
       </c>
       <c r="E19">
-        <v>17.040804484346879</v>
+        <v>3.4507568933996509</v>
       </c>
       <c r="F19">
-        <v>35.824287167779417</v>
+        <v>3.1453733416181469</v>
       </c>
       <c r="G19">
-        <v>292.45945945945948</v>
+        <v>37.174716085759798</v>
       </c>
       <c r="H19">
-        <v>287.35135135135141</v>
+        <v>34.047146834664431</v>
       </c>
       <c r="I19">
-        <v>334.05882352941182</v>
+        <v>44.488109448439417</v>
       </c>
       <c r="J19">
-        <v>437.0263157894737</v>
+        <v>46.752496755510847</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1112,31 +1107,31 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>277.72274286670569</v>
+        <v>293.20458630222458</v>
       </c>
       <c r="C20">
-        <v>288.38342590711011</v>
+        <v>304.0959348734919</v>
       </c>
       <c r="D20">
-        <v>-3.7</v>
+        <v>-3.58</v>
       </c>
       <c r="E20">
-        <v>14.6909294062615</v>
+        <v>15.00774279406183</v>
       </c>
       <c r="F20">
-        <v>30.533148627639239</v>
+        <v>33.441375301221903</v>
       </c>
       <c r="G20">
-        <v>253.94594594594591</v>
+        <v>269.86237616166147</v>
       </c>
       <c r="H20">
-        <v>247.75675675675669</v>
+        <v>262.37396173431551</v>
       </c>
       <c r="I20">
-        <v>290.34210526315792</v>
+        <v>307.55495493368909</v>
       </c>
       <c r="J20">
-        <v>377.89473684210532</v>
+        <v>401.15080375715343</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1144,31 +1139,31 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>43.795799514684973</v>
+        <v>254.6964924804382</v>
       </c>
       <c r="C21">
-        <v>42.313824952772322</v>
+        <v>264.05642820685631</v>
       </c>
       <c r="D21">
-        <v>3.5</v>
+        <v>-3.54</v>
       </c>
       <c r="E21">
-        <v>3.5838193829021758</v>
+        <v>12.93835849640719</v>
       </c>
       <c r="F21">
-        <v>3.5280558682997909</v>
+        <v>28.522508986452198</v>
       </c>
       <c r="G21">
-        <v>40.815789473684212</v>
+        <v>234.33026854602201</v>
       </c>
       <c r="H21">
-        <v>37.210526315789473</v>
+        <v>225.740040422021</v>
       </c>
       <c r="I21">
-        <v>48.216216216216218</v>
+        <v>267.29286180902102</v>
       </c>
       <c r="J21">
-        <v>51.297297297297298</v>
+        <v>346.91897994042671</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1176,31 +1171,31 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>3050.6531503639858</v>
+        <v>2798.407452189314</v>
       </c>
       <c r="C22">
-        <v>3141.3498126698119</v>
+        <v>2876.707896220159</v>
       </c>
       <c r="D22">
-        <v>-2.89</v>
+        <v>-2.72</v>
       </c>
       <c r="E22">
-        <v>208.38542333886861</v>
+        <v>184.35267872810911</v>
       </c>
       <c r="F22">
-        <v>381.76048183564058</v>
+        <v>356.49273427537111</v>
       </c>
       <c r="G22">
-        <v>2702.864864864865</v>
+        <v>2494.8092376601398</v>
       </c>
       <c r="H22">
-        <v>2704.72972972973</v>
+        <v>2464.9196574440039</v>
       </c>
       <c r="I22">
-        <v>3220.4705882352941</v>
+        <v>2948.8286192480141</v>
       </c>
       <c r="J22">
-        <v>4304.6315789473683</v>
+        <v>3952.9593740109808</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1208,31 +1203,31 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>3866.2908961593171</v>
+        <v>3545.9631134870378</v>
       </c>
       <c r="C23">
-        <v>3975.0494265694269</v>
+        <v>3639.765851040218</v>
       </c>
       <c r="D23">
-        <v>-2.74</v>
+        <v>-2.58</v>
       </c>
       <c r="E23">
-        <v>246.83963560412531</v>
+        <v>218.85614645253941</v>
       </c>
       <c r="F23">
-        <v>459.39476118757881</v>
+        <v>429.41166592641548</v>
       </c>
       <c r="G23">
-        <v>3465.1621621621621</v>
+        <v>3197.822042949665</v>
       </c>
       <c r="H23">
-        <v>3484.27027027027</v>
+        <v>3179.377167812725</v>
       </c>
       <c r="I23">
-        <v>4080</v>
+        <v>3736.8772079362502</v>
       </c>
       <c r="J23">
-        <v>5370.7631578947367</v>
+        <v>4931.1308082174146</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1240,31 +1235,31 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>815.63774579533083</v>
+        <v>747.55566129772455</v>
       </c>
       <c r="C24">
-        <v>833.69961389961384</v>
+        <v>763.05795482005965</v>
       </c>
       <c r="D24">
-        <v>-2.17</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="E24">
-        <v>42.300308169958697</v>
+        <v>38.512995734033503</v>
       </c>
       <c r="F24">
-        <v>91.606184282524012</v>
+        <v>85.653648060434932</v>
       </c>
       <c r="G24">
-        <v>762.29729729729729</v>
+        <v>703.01280528952384</v>
       </c>
       <c r="H24">
-        <v>721.63157894736844</v>
+        <v>659.58725600492346</v>
       </c>
       <c r="I24">
-        <v>859.52941176470586</v>
+        <v>788.04858868823601</v>
       </c>
       <c r="J24">
-        <v>1066.1315789473681</v>
+        <v>978.17143420643276</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1272,31 +1267,31 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>21.99921345494101</v>
+        <v>20.1742622769974</v>
       </c>
       <c r="C25">
-        <v>22.450678498046919</v>
+        <v>20.544191548621239</v>
       </c>
       <c r="D25">
-        <v>-2.0099999999999998</v>
+        <v>-1.8</v>
       </c>
       <c r="E25">
-        <v>1.3402115833644359</v>
+        <v>1.1804601017598331</v>
       </c>
       <c r="F25">
-        <v>1.7510977472388789</v>
+        <v>1.6007667554603</v>
       </c>
       <c r="G25">
-        <v>20.189189189189189</v>
+        <v>18.606480659716329</v>
       </c>
       <c r="H25">
-        <v>18.54054054054054</v>
+        <v>16.88850805807818</v>
       </c>
       <c r="I25">
-        <v>23.705882352941181</v>
+        <v>21.65936976095136</v>
       </c>
       <c r="J25">
-        <v>25.405405405405411</v>
+        <v>23.071590426937529</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1304,31 +1299,31 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>1951.497375282403</v>
+        <v>1789.2120733005211</v>
       </c>
       <c r="C26">
-        <v>1979.195921232511</v>
+        <v>1811.942326599979</v>
       </c>
       <c r="D26">
-        <v>-1.4</v>
+        <v>-1.25</v>
       </c>
       <c r="E26">
-        <v>87.520268491871491</v>
+        <v>77.222475116928322</v>
       </c>
       <c r="F26">
-        <v>58.64859535624818</v>
+        <v>54.771125441167349</v>
       </c>
       <c r="G26">
-        <v>1843.5091891891891</v>
+        <v>1701.358366132278</v>
       </c>
       <c r="H26">
-        <v>1880.3273684210531</v>
+        <v>1720.4535131642961</v>
       </c>
       <c r="I26">
-        <v>2045.0410526315791</v>
+        <v>1880.958511657501</v>
       </c>
       <c r="J26">
-        <v>2079.6818421052631</v>
+        <v>1910.610525942295</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1336,31 +1331,31 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>2107.893022508576</v>
+        <v>1932.5351958232941</v>
       </c>
       <c r="C27">
-        <v>2126.3749570329728</v>
+        <v>1946.8875171377611</v>
       </c>
       <c r="D27">
-        <v>-0.87</v>
+        <v>-0.74</v>
       </c>
       <c r="E27">
-        <v>82.403535212219083</v>
+        <v>69.571189887603992</v>
       </c>
       <c r="F27">
-        <v>86.746203982064543</v>
+        <v>81.368699031047797</v>
       </c>
       <c r="G27">
-        <v>1986.106756756757</v>
+        <v>1832.361888924069</v>
       </c>
       <c r="H27">
-        <v>2019.0308108108111</v>
+        <v>1845.4186304131849</v>
       </c>
       <c r="I27">
-        <v>2178.9323529411758</v>
+        <v>1992.0281406677309</v>
       </c>
       <c r="J27">
-        <v>2363.492368421053</v>
+        <v>2171.232858706177</v>
       </c>
     </row>
   </sheetData>
